--- a/SimulationStudyData/Model5/SimCase29_Zsim_SimRun2.xlsx
+++ b/SimulationStudyData/Model5/SimCase29_Zsim_SimRun2.xlsx
@@ -416,25 +416,25 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -471,34 +471,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -535,86 +535,86 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -678,42 +678,42 @@
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -727,28 +727,28 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -762,63 +762,63 @@
         <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -841,10 +841,10 @@
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -864,25 +864,25 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -951,66 +951,66 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1146,16 +1146,16 @@
         <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -1196,13 +1196,13 @@
         <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1213,10 +1213,10 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1239,25 +1239,25 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>2</v>
@@ -1271,89 +1271,89 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1367,34 +1367,34 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1408,25 +1408,25 @@
         <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1463,13 +1463,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>2</v>
@@ -1484,10 +1484,10 @@
         <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -1495,66 +1495,66 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1600,42 +1600,42 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>2</v>
@@ -1687,66 +1687,66 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1810,39 +1810,39 @@
         <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1850,28 +1850,28 @@
         <v>2</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -1882,31 +1882,31 @@
         <v>2</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2007,28 +2007,28 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
         <v>2</v>
@@ -2039,31 +2039,31 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
         <v>2</v>
@@ -2103,34 +2103,34 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2167,22 +2167,22 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2199,25 +2199,25 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
@@ -2298,19 +2298,19 @@
         <v>2</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2327,25 +2327,25 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -2359,34 +2359,34 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2418,7 +2418,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2461,45 +2461,45 @@
         <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -2566,16 +2566,16 @@
         <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
         <v>2</v>
@@ -2598,19 +2598,19 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2720,13 +2720,13 @@
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -2755,22 +2755,22 @@
         <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -2781,42 +2781,42 @@
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
@@ -2866,7 +2866,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -2892,13 +2892,13 @@
         <v>2</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2918,19 +2918,19 @@
         <v>2</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2941,28 +2941,28 @@
         <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2970,31 +2970,31 @@
         <v>2</v>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3017,16 +3017,16 @@
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -3052,45 +3052,45 @@
         <v>2</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3159,19 +3159,19 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -3218,18 +3218,18 @@
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -3378,7 +3378,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3398,13 +3398,13 @@
         <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -3415,51 +3415,51 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
@@ -3479,34 +3479,34 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3517,42 +3517,42 @@
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" t="n">
         <v>1</v>
@@ -3575,98 +3575,98 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -3686,19 +3686,19 @@
         <v>2</v>
       </c>
       <c r="F104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3715,19 +3715,19 @@
         <v>2</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
@@ -3762,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -3826,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -3863,66 +3863,66 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -3933,25 +3933,25 @@
         <v>2</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
@@ -3994,16 +3994,16 @@
         <v>2</v>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
         <v>1</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
@@ -4169,16 +4169,16 @@
         <v>2</v>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -4192,30 +4192,30 @@
         <v>2</v>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
@@ -4247,34 +4247,34 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -4326,19 +4326,19 @@
         <v>2</v>
       </c>
       <c r="F124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -4346,57 +4346,57 @@
         <v>2</v>
       </c>
       <c r="B125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
         <v>2</v>
@@ -4434,7 +4434,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -4448,89 +4448,89 @@
         <v>2</v>
       </c>
       <c r="D128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -4582,7 +4582,7 @@
         <v>2</v>
       </c>
       <c r="F132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -4649,62 +4649,62 @@
         <v>2</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E136" t="n">
         <v>1</v>
@@ -4727,25 +4727,25 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H137" t="n">
         <v>1</v>
@@ -4812,42 +4812,42 @@
         <v>2</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
         <v>1</v>
@@ -4864,7 +4864,7 @@
         <v>2</v>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
         <v>1</v>
@@ -4914,7 +4914,7 @@
         <v>2</v>
       </c>
       <c r="J142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -4951,77 +4951,77 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -5050,31 +5050,31 @@
         <v>2</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -5111,54 +5111,54 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -5184,10 +5184,10 @@
         <v>2</v>
       </c>
       <c r="D151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
@@ -5207,54 +5207,54 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5271,10 +5271,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -5303,19 +5303,19 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
@@ -5341,28 +5341,28 @@
         <v>2</v>
       </c>
       <c r="C156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -5385,16 +5385,16 @@
         <v>2</v>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -5408,10 +5408,10 @@
         <v>2</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F158" t="n">
         <v>1</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B160" t="n">
         <v>2</v>
@@ -5650,39 +5650,39 @@
         <v>2</v>
       </c>
       <c r="J165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -5693,28 +5693,28 @@
         <v>2</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -5737,36 +5737,36 @@
         <v>2</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H168" t="n">
         <v>1</v>
       </c>
       <c r="I168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -5783,25 +5783,25 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H170" t="n">
         <v>1</v>
@@ -5847,22 +5847,22 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -5879,10 +5879,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
@@ -5967,10 +5967,10 @@
         <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -5984,57 +5984,57 @@
         <v>2</v>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -6051,65 +6051,65 @@
         <v>2</v>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180" t="n">
         <v>1</v>
@@ -6199,16 +6199,16 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E183" t="n">
         <v>1</v>
@@ -6249,80 +6249,80 @@
         <v>2</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -6359,10 +6359,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -6391,34 +6391,34 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -6429,16 +6429,16 @@
         <v>2</v>
       </c>
       <c r="C190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -6473,48 +6473,48 @@
         <v>2</v>
       </c>
       <c r="G191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -6615,34 +6615,34 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -6662,51 +6662,51 @@
         <v>2</v>
       </c>
       <c r="F197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -6784,25 +6784,25 @@
         <v>2</v>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
